--- a/Day8/model_comparison.xlsx
+++ b/Day8/model_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\github\or_advent\Day8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D8DF3AC-3830-422C-AB8F-92EF6C37FAD0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D3BC5A-16EC-4206-ACA6-DD1C591370BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15720" xr2:uid="{25937C2A-E721-4BD1-BC0C-75E8890354E8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>instance</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>delta mip2</t>
+  </si>
+  <si>
+    <t>iterative_knapsack</t>
+  </si>
+  <si>
+    <t>delta+iterative_ks</t>
   </si>
 </sst>
 </file>
@@ -224,7 +230,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$F$1</c:f>
+              <c:f>data!$G$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -316,7 +322,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$F$2:$F$21</c:f>
+              <c:f>data!$G$2:$G$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
@@ -394,7 +400,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$G$1</c:f>
+              <c:f>data!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -484,7 +490,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$G$2:$G$21</c:f>
+              <c:f>data!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
@@ -562,7 +568,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$H$1</c:f>
+              <c:f>data!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -652,7 +658,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$H$2:$H$21</c:f>
+              <c:f>data!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
@@ -722,6 +728,105 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E72D-4B51-B4AB-07C3B564A835}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delta+iterative_ks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1224489795918366E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5217391304347824E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12244897959183673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1632653061224483E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6956521739130432E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20408163265306123</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12244897959183673</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.6153846153846159E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17307692307692307</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0816326530612242E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-21DA-4A5B-8E07-8924656EAC6A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -917,8 +1022,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.53527404156447655"/>
           <c:y val="9.0661443701446867E-2"/>
-          <c:w val="0.44857751387633921"/>
-          <c:h val="5.5067199514633527E-2"/>
+          <c:w val="0.4647259828456487"/>
+          <c:h val="4.2642701853292504E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3059,7 +3164,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="11620500" cy="7581900"/>
+    <xdr:ext cx="11576538" cy="7546731"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
@@ -3092,7 +3197,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="11620500" cy="7581900"/>
+    <xdr:ext cx="11602261" cy="7569335"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
@@ -3438,19 +3543,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41999514-6823-4F26-AB43-EAFA8083A846}">
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:J21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="5" max="6" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3467,16 +3572,22 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>7</v>
       </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3492,20 +3603,27 @@
       <c r="E2">
         <v>49</v>
       </c>
-      <c r="F2" s="1">
+      <c r="F2">
+        <v>54</v>
+      </c>
+      <c r="G2" s="1">
         <f>(C2-$B2)/$B2</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="G2" s="1">
+      <c r="H2" s="1">
         <f>(D2-$B2)/$B2</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <f>(E2-$B2)/$B2</f>
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="J2" s="1">
+        <f>(F2-$B2)/$B2</f>
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3521,20 +3639,27 @@
       <c r="E3">
         <v>50</v>
       </c>
-      <c r="F3" s="1">
-        <f t="shared" ref="F3:F21" si="0">(C3-$B3)/$B3</f>
+      <c r="F3">
+        <v>52</v>
+      </c>
+      <c r="G3" s="1">
+        <f t="shared" ref="G3:G21" si="0">(C3-$B3)/$B3</f>
         <v>4.0816326530612242E-2</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G21" si="1">(D3-$B3)/$B3</f>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H21" si="1">(D3-$B3)/$B3</f>
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H21" si="2">(E3-$B3)/$B3</f>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:J21" si="2">(E3-$B3)/$B3</f>
         <v>2.0408163265306121E-2</v>
       </c>
+      <c r="J3" s="1">
+        <f t="shared" si="2"/>
+        <v>6.1224489795918366E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3550,20 +3675,27 @@
       <c r="E4">
         <v>47</v>
       </c>
-      <c r="F4" s="1">
+      <c r="F4">
+        <v>49</v>
+      </c>
+      <c r="G4" s="1">
         <f t="shared" si="0"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="G4" s="1">
+      <c r="H4" s="1">
         <f t="shared" si="1"/>
         <v>2.1739130434782608E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <f t="shared" si="2"/>
         <v>2.1739130434782608E-2</v>
       </c>
+      <c r="J4" s="1">
+        <f t="shared" si="2"/>
+        <v>6.5217391304347824E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3579,20 +3711,27 @@
       <c r="E5">
         <v>51</v>
       </c>
-      <c r="F5" s="1">
+      <c r="F5">
+        <v>55</v>
+      </c>
+      <c r="G5" s="1">
         <f t="shared" si="0"/>
         <v>8.1632653061224483E-2</v>
       </c>
-      <c r="G5" s="1">
+      <c r="H5" s="1">
         <f t="shared" si="1"/>
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <f t="shared" si="2"/>
         <v>4.0816326530612242E-2</v>
       </c>
+      <c r="J5" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12244897959183673</v>
+      </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3608,20 +3747,27 @@
       <c r="E6">
         <v>51</v>
       </c>
-      <c r="F6" s="1">
+      <c r="F6">
+        <v>56</v>
+      </c>
+      <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="G6" s="1">
+      <c r="H6" s="1">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
+      <c r="J6" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3637,20 +3783,27 @@
       <c r="E7">
         <v>49</v>
       </c>
-      <c r="F7" s="1">
+      <c r="F7">
+        <v>53</v>
+      </c>
+      <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G7" s="1">
+      <c r="H7" s="1">
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <f t="shared" si="2"/>
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="J7" s="1">
+        <f t="shared" si="2"/>
+        <v>0.10416666666666667</v>
+      </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3666,20 +3819,27 @@
       <c r="E8">
         <v>49</v>
       </c>
-      <c r="F8" s="1">
+      <c r="F8">
+        <v>54</v>
+      </c>
+      <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G8" s="1">
+      <c r="H8" s="1">
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <f t="shared" si="2"/>
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="J8" s="1">
+        <f t="shared" si="2"/>
+        <v>0.125</v>
+      </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3695,20 +3855,27 @@
       <c r="E9">
         <v>50</v>
       </c>
-      <c r="F9" s="1">
+      <c r="F9">
+        <v>53</v>
+      </c>
+      <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>6.1224489795918366E-2</v>
       </c>
-      <c r="G9" s="1">
+      <c r="H9" s="1">
         <f t="shared" si="1"/>
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <f t="shared" si="2"/>
         <v>2.0408163265306121E-2</v>
       </c>
+      <c r="J9" s="1">
+        <f t="shared" si="2"/>
+        <v>8.1632653061224483E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3724,20 +3891,27 @@
       <c r="E10">
         <v>52</v>
       </c>
-      <c r="F10" s="1">
+      <c r="F10">
+        <v>57</v>
+      </c>
+      <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="G10" s="1">
+      <c r="H10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <f t="shared" si="2"/>
         <v>1.9607843137254902E-2</v>
       </c>
+      <c r="J10" s="1">
+        <f t="shared" si="2"/>
+        <v>0.11764705882352941</v>
+      </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3753,20 +3927,27 @@
       <c r="E11">
         <v>48</v>
       </c>
-      <c r="F11" s="1">
+      <c r="F11">
+        <v>50</v>
+      </c>
+      <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="G11" s="1">
+      <c r="H11" s="1">
         <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
+      <c r="J11" s="1">
+        <f t="shared" si="2"/>
+        <v>8.6956521739130432E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3782,20 +3963,27 @@
       <c r="E12">
         <v>53</v>
       </c>
-      <c r="F12" s="1">
+      <c r="F12">
+        <v>56</v>
+      </c>
+      <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>5.7692307692307696E-2</v>
       </c>
-      <c r="G12" s="1">
+      <c r="H12" s="1">
         <f t="shared" si="1"/>
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <f t="shared" si="2"/>
         <v>1.9230769230769232E-2</v>
       </c>
+      <c r="J12" s="1">
+        <f t="shared" si="2"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -3811,20 +3999,27 @@
       <c r="E13">
         <v>50</v>
       </c>
-      <c r="F13" s="1">
+      <c r="F13">
+        <v>59</v>
+      </c>
+      <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>4.0816326530612242E-2</v>
       </c>
-      <c r="G13" s="1">
+      <c r="H13" s="1">
         <f t="shared" si="1"/>
         <v>4.0816326530612242E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <f t="shared" si="2"/>
         <v>2.0408163265306121E-2</v>
       </c>
+      <c r="J13" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20408163265306123</v>
+      </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -3840,20 +4035,27 @@
       <c r="E14">
         <v>50</v>
       </c>
-      <c r="F14" s="1">
+      <c r="F14">
+        <v>50</v>
+      </c>
+      <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="G14" s="1">
+      <c r="H14" s="1">
         <f t="shared" si="1"/>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="J14" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -3869,20 +4071,27 @@
       <c r="E15">
         <v>50</v>
       </c>
-      <c r="F15" s="1">
+      <c r="F15">
+        <v>55</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>4.0816326530612242E-2</v>
       </c>
-      <c r="G15" s="1">
+      <c r="H15" s="1">
         <f t="shared" si="1"/>
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <f t="shared" si="2"/>
         <v>2.0408163265306121E-2</v>
       </c>
+      <c r="J15" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12244897959183673</v>
+      </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -3898,20 +4107,27 @@
       <c r="E16">
         <v>51</v>
       </c>
-      <c r="F16" s="1">
+      <c r="F16">
+        <v>55</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="G16" s="1">
+      <c r="H16" s="1">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
+      <c r="J16" s="1">
+        <f t="shared" si="2"/>
+        <v>0.1</v>
+      </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -3927,20 +4143,27 @@
       <c r="E17">
         <v>49</v>
       </c>
-      <c r="F17" s="1">
+      <c r="F17">
+        <v>58</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="G17" s="1">
+      <c r="H17" s="1">
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <f t="shared" si="2"/>
         <v>2.0833333333333332E-2</v>
       </c>
+      <c r="J17" s="1">
+        <f t="shared" si="2"/>
+        <v>0.20833333333333334</v>
+      </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -3956,20 +4179,27 @@
       <c r="E18">
         <v>53</v>
       </c>
-      <c r="F18" s="1">
+      <c r="F18">
+        <v>57</v>
+      </c>
+      <c r="G18" s="1">
         <f t="shared" si="0"/>
         <v>5.7692307692307696E-2</v>
       </c>
-      <c r="G18" s="1">
+      <c r="H18" s="1">
         <f t="shared" si="1"/>
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <f t="shared" si="2"/>
         <v>1.9230769230769232E-2</v>
       </c>
+      <c r="J18" s="1">
+        <f t="shared" si="2"/>
+        <v>9.6153846153846159E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -3985,20 +4215,27 @@
       <c r="E19">
         <v>54</v>
       </c>
-      <c r="F19" s="1">
+      <c r="F19">
+        <v>61</v>
+      </c>
+      <c r="G19" s="1">
         <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="G19" s="1">
+      <c r="H19" s="1">
         <f t="shared" si="1"/>
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <f t="shared" si="2"/>
         <v>3.8461538461538464E-2</v>
       </c>
+      <c r="J19" s="1">
+        <f t="shared" si="2"/>
+        <v>0.17307692307692307</v>
+      </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4014,20 +4251,27 @@
       <c r="E20">
         <v>50</v>
       </c>
-      <c r="F20" s="1">
+      <c r="F20">
+        <v>51</v>
+      </c>
+      <c r="G20" s="1">
         <f t="shared" si="0"/>
         <v>4.0816326530612242E-2</v>
       </c>
-      <c r="G20" s="1">
+      <c r="H20" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <f t="shared" si="2"/>
         <v>2.0408163265306121E-2</v>
       </c>
+      <c r="J20" s="1">
+        <f t="shared" si="2"/>
+        <v>4.0816326530612242E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4043,17 +4287,24 @@
       <c r="E21">
         <v>51</v>
       </c>
-      <c r="F21" s="1">
+      <c r="F21">
+        <v>56</v>
+      </c>
+      <c r="G21" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="G21" s="1">
+      <c r="H21" s="1">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <f t="shared" si="2"/>
         <v>0.02</v>
+      </c>
+      <c r="J21" s="1">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
       </c>
     </row>
   </sheetData>

--- a/Day8/model_comparison.xlsx
+++ b/Day8/model_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\github\or_advent\Day8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{46D3BC5A-16EC-4206-ACA6-DD1C591370BE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007E960C-C221-4600-ACB7-F58BA8047EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15720" xr2:uid="{25937C2A-E721-4BD1-BC0C-75E8890354E8}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>instance</t>
   </si>
@@ -68,6 +68,12 @@
   </si>
   <si>
     <t>delta+iterative_ks</t>
+  </si>
+  <si>
+    <t>minizinc+GPT</t>
+  </si>
+  <si>
+    <t>minizinc_chatGPT</t>
   </si>
 </sst>
 </file>
@@ -230,7 +236,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$G$1</c:f>
+              <c:f>data!$H$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -322,7 +328,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$G$2:$G$21</c:f>
+              <c:f>data!$H$2:$H$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
@@ -400,7 +406,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$H$1</c:f>
+              <c:f>data!$I$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -490,7 +496,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$H$2:$H$21</c:f>
+              <c:f>data!$I$2:$I$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
@@ -568,7 +574,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$I$1</c:f>
+              <c:f>data!$J$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -658,7 +664,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>data!$I$2:$I$21</c:f>
+              <c:f>data!$J$2:$J$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
@@ -736,7 +742,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>data!$J$1</c:f>
+              <c:f>data!$K$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -757,7 +763,7 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>data!$J$2:$J$21</c:f>
+              <c:f>data!$K$2:$K$21</c:f>
               <c:numCache>
                 <c:formatCode>0%</c:formatCode>
                 <c:ptCount val="20"/>
@@ -827,6 +833,105 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-21DA-4A5B-8E07-8924656EAC6A}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>minizinc+GPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$L$2:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1739130434782608E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1739130434782608E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9230769230769232E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9230769230769232E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9230769230769232E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-49C5-4FAD-B0EA-454735461C89}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -850,6 +955,20 @@
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
         <c:title>
           <c:tx>
             <c:rich>
@@ -1022,8 +1141,8 @@
           <c:yMode val="edge"/>
           <c:x val="0.53527404156447655"/>
           <c:y val="9.0661443701446867E-2"/>
-          <c:w val="0.4647259828456487"/>
-          <c:h val="4.2642701853292504E-2"/>
+          <c:w val="0.46472597022252815"/>
+          <c:h val="4.2515359671622406E-2"/>
         </c:manualLayout>
       </c:layout>
       <c:overlay val="0"/>
@@ -3164,7 +3283,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="11576538" cy="7546731"/>
+    <xdr:ext cx="11602261" cy="7569335"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="Диаграмма 1">
@@ -3543,19 +3662,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41999514-6823-4F26-AB43-EAFA8083A846}">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="3" max="3" width="13.33203125" customWidth="1"/>
-    <col min="5" max="6" width="15.6640625" customWidth="1"/>
+    <col min="5" max="7" width="15.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -3575,19 +3694,25 @@
         <v>8</v>
       </c>
       <c r="G1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>7</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>0</v>
       </c>
@@ -3606,24 +3731,31 @@
       <c r="F2">
         <v>54</v>
       </c>
-      <c r="G2" s="1">
+      <c r="G2">
+        <v>49</v>
+      </c>
+      <c r="H2" s="1">
         <f>(C2-$B2)/$B2</f>
         <v>4.1666666666666664E-2</v>
       </c>
-      <c r="H2" s="1">
+      <c r="I2" s="1">
         <f>(D2-$B2)/$B2</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="I2" s="1">
+      <c r="J2" s="1">
         <f>(E2-$B2)/$B2</f>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J2" s="1">
+      <c r="K2" s="1">
         <f>(F2-$B2)/$B2</f>
         <v>0.125</v>
       </c>
+      <c r="L2" s="1">
+        <f>(G2-$B2)/$B2</f>
+        <v>2.0833333333333332E-2</v>
+      </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>1</v>
       </c>
@@ -3642,24 +3774,31 @@
       <c r="F3">
         <v>52</v>
       </c>
-      <c r="G3" s="1">
-        <f t="shared" ref="G3:G21" si="0">(C3-$B3)/$B3</f>
+      <c r="G3">
+        <v>50</v>
+      </c>
+      <c r="H3" s="1">
+        <f t="shared" ref="H3:H21" si="0">(C3-$B3)/$B3</f>
         <v>4.0816326530612242E-2</v>
       </c>
-      <c r="H3" s="1">
-        <f t="shared" ref="H3:H21" si="1">(D3-$B3)/$B3</f>
+      <c r="I3" s="1">
+        <f t="shared" ref="I3:I21" si="1">(D3-$B3)/$B3</f>
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="I3" s="1">
-        <f t="shared" ref="I3:J21" si="2">(E3-$B3)/$B3</f>
+      <c r="J3" s="1">
+        <f t="shared" ref="J3:K21" si="2">(E3-$B3)/$B3</f>
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="J3" s="1">
+      <c r="K3" s="1">
         <f t="shared" si="2"/>
         <v>6.1224489795918366E-2</v>
       </c>
+      <c r="L3" s="1">
+        <f t="shared" ref="L3:L21" si="3">(G3-$B3)/$B3</f>
+        <v>2.0408163265306121E-2</v>
+      </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>2</v>
       </c>
@@ -3678,24 +3817,31 @@
       <c r="F4">
         <v>49</v>
       </c>
-      <c r="G4" s="1">
+      <c r="G4">
+        <v>47</v>
+      </c>
+      <c r="H4" s="1">
         <f t="shared" si="0"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="H4" s="1">
+      <c r="I4" s="1">
         <f t="shared" si="1"/>
         <v>2.1739130434782608E-2</v>
       </c>
-      <c r="I4" s="1">
+      <c r="J4" s="1">
         <f t="shared" si="2"/>
         <v>2.1739130434782608E-2</v>
       </c>
-      <c r="J4" s="1">
+      <c r="K4" s="1">
         <f t="shared" si="2"/>
         <v>6.5217391304347824E-2</v>
       </c>
+      <c r="L4" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>3</v>
       </c>
@@ -3714,24 +3860,31 @@
       <c r="F5">
         <v>55</v>
       </c>
-      <c r="G5" s="1">
+      <c r="G5">
+        <v>50</v>
+      </c>
+      <c r="H5" s="1">
         <f t="shared" si="0"/>
         <v>8.1632653061224483E-2</v>
       </c>
-      <c r="H5" s="1">
+      <c r="I5" s="1">
         <f t="shared" si="1"/>
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="I5" s="1">
+      <c r="J5" s="1">
         <f t="shared" si="2"/>
         <v>4.0816326530612242E-2</v>
       </c>
-      <c r="J5" s="1">
+      <c r="K5" s="1">
         <f t="shared" si="2"/>
         <v>0.12244897959183673</v>
       </c>
+      <c r="L5" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>4</v>
       </c>
@@ -3750,24 +3903,31 @@
       <c r="F6">
         <v>56</v>
       </c>
-      <c r="G6" s="1">
+      <c r="G6">
+        <v>51</v>
+      </c>
+      <c r="H6" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="H6" s="1">
+      <c r="I6" s="1">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="I6" s="1">
+      <c r="J6" s="1">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="J6" s="1">
+      <c r="K6" s="1">
         <f t="shared" si="2"/>
         <v>0.12</v>
       </c>
+      <c r="L6" s="1">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>5</v>
       </c>
@@ -3786,24 +3946,31 @@
       <c r="F7">
         <v>53</v>
       </c>
-      <c r="G7" s="1">
+      <c r="G7">
+        <v>48</v>
+      </c>
+      <c r="H7" s="1">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H7" s="1">
+      <c r="I7" s="1">
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="I7" s="1">
+      <c r="J7" s="1">
         <f t="shared" si="2"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J7" s="1">
+      <c r="K7" s="1">
         <f t="shared" si="2"/>
         <v>0.10416666666666667</v>
       </c>
+      <c r="L7" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>6</v>
       </c>
@@ -3822,24 +3989,31 @@
       <c r="F8">
         <v>54</v>
       </c>
-      <c r="G8" s="1">
+      <c r="G8">
+        <v>49</v>
+      </c>
+      <c r="H8" s="1">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H8" s="1">
+      <c r="I8" s="1">
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="I8" s="1">
+      <c r="J8" s="1">
         <f t="shared" si="2"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J8" s="1">
+      <c r="K8" s="1">
         <f t="shared" si="2"/>
         <v>0.125</v>
       </c>
+      <c r="L8" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>7</v>
       </c>
@@ -3858,24 +4032,31 @@
       <c r="F9">
         <v>53</v>
       </c>
-      <c r="G9" s="1">
+      <c r="G9">
+        <v>50</v>
+      </c>
+      <c r="H9" s="1">
         <f t="shared" si="0"/>
         <v>6.1224489795918366E-2</v>
       </c>
-      <c r="H9" s="1">
+      <c r="I9" s="1">
         <f t="shared" si="1"/>
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="I9" s="1">
+      <c r="J9" s="1">
         <f t="shared" si="2"/>
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="J9" s="1">
+      <c r="K9" s="1">
         <f t="shared" si="2"/>
         <v>8.1632653061224483E-2</v>
       </c>
+      <c r="L9" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>8</v>
       </c>
@@ -3894,24 +4075,31 @@
       <c r="F10">
         <v>57</v>
       </c>
-      <c r="G10" s="1">
+      <c r="G10">
+        <v>51</v>
+      </c>
+      <c r="H10" s="1">
         <f t="shared" si="0"/>
         <v>3.9215686274509803E-2</v>
       </c>
-      <c r="H10" s="1">
+      <c r="I10" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I10" s="1">
+      <c r="J10" s="1">
         <f t="shared" si="2"/>
         <v>1.9607843137254902E-2</v>
       </c>
-      <c r="J10" s="1">
+      <c r="K10" s="1">
         <f t="shared" si="2"/>
         <v>0.11764705882352941</v>
       </c>
+      <c r="L10" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>9</v>
       </c>
@@ -3930,24 +4118,31 @@
       <c r="F11">
         <v>50</v>
       </c>
-      <c r="G11" s="1">
+      <c r="G11">
+        <v>47</v>
+      </c>
+      <c r="H11" s="1">
         <f t="shared" si="0"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="H11" s="1">
+      <c r="I11" s="1">
         <f t="shared" si="1"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="I11" s="1">
+      <c r="J11" s="1">
         <f t="shared" si="2"/>
         <v>4.3478260869565216E-2</v>
       </c>
-      <c r="J11" s="1">
+      <c r="K11" s="1">
         <f t="shared" si="2"/>
         <v>8.6956521739130432E-2</v>
       </c>
+      <c r="L11" s="1">
+        <f t="shared" si="3"/>
+        <v>2.1739130434782608E-2</v>
+      </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10</v>
       </c>
@@ -3966,24 +4161,31 @@
       <c r="F12">
         <v>56</v>
       </c>
-      <c r="G12" s="1">
+      <c r="G12">
+        <v>53</v>
+      </c>
+      <c r="H12" s="1">
         <f t="shared" si="0"/>
         <v>5.7692307692307696E-2</v>
       </c>
-      <c r="H12" s="1">
+      <c r="I12" s="1">
         <f t="shared" si="1"/>
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="I12" s="1">
+      <c r="J12" s="1">
         <f t="shared" si="2"/>
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="J12" s="1">
+      <c r="K12" s="1">
         <f t="shared" si="2"/>
         <v>7.6923076923076927E-2</v>
       </c>
+      <c r="L12" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9230769230769232E-2</v>
+      </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>11</v>
       </c>
@@ -4002,24 +4204,31 @@
       <c r="F13">
         <v>59</v>
       </c>
-      <c r="G13" s="1">
+      <c r="G13">
+        <v>50</v>
+      </c>
+      <c r="H13" s="1">
         <f t="shared" si="0"/>
         <v>4.0816326530612242E-2</v>
       </c>
-      <c r="H13" s="1">
+      <c r="I13" s="1">
         <f t="shared" si="1"/>
         <v>4.0816326530612242E-2</v>
       </c>
-      <c r="I13" s="1">
+      <c r="J13" s="1">
         <f t="shared" si="2"/>
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="J13" s="1">
+      <c r="K13" s="1">
         <f t="shared" si="2"/>
         <v>0.20408163265306123</v>
       </c>
+      <c r="L13" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>12</v>
       </c>
@@ -4038,24 +4247,31 @@
       <c r="F14">
         <v>50</v>
       </c>
-      <c r="G14" s="1">
+      <c r="G14">
+        <v>49</v>
+      </c>
+      <c r="H14" s="1">
         <f t="shared" si="0"/>
         <v>6.25E-2</v>
       </c>
-      <c r="H14" s="1">
+      <c r="I14" s="1">
         <f t="shared" si="1"/>
-        <v>4.1666666666666664E-2</v>
-      </c>
-      <c r="I14" s="1">
-        <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
       <c r="J14" s="1">
         <f t="shared" si="2"/>
         <v>4.1666666666666664E-2</v>
       </c>
+      <c r="K14" s="1">
+        <f t="shared" si="2"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="L14" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>13</v>
       </c>
@@ -4074,24 +4290,31 @@
       <c r="F15">
         <v>55</v>
       </c>
-      <c r="G15" s="1">
+      <c r="G15">
+        <v>49</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="0"/>
         <v>4.0816326530612242E-2</v>
       </c>
-      <c r="H15" s="1">
+      <c r="I15" s="1">
         <f t="shared" si="1"/>
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="I15" s="1">
+      <c r="J15" s="1">
         <f t="shared" si="2"/>
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="J15" s="1">
+      <c r="K15" s="1">
         <f t="shared" si="2"/>
         <v>0.12244897959183673</v>
       </c>
+      <c r="L15" s="1">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>14</v>
       </c>
@@ -4110,24 +4333,31 @@
       <c r="F16">
         <v>55</v>
       </c>
-      <c r="G16" s="1">
+      <c r="G16">
+        <v>51</v>
+      </c>
+      <c r="H16" s="1">
         <f t="shared" si="0"/>
         <v>0.06</v>
       </c>
-      <c r="H16" s="1">
+      <c r="I16" s="1">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="I16" s="1">
+      <c r="J16" s="1">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="J16" s="1">
+      <c r="K16" s="1">
         <f t="shared" si="2"/>
         <v>0.1</v>
       </c>
+      <c r="L16" s="1">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
+      </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>15</v>
       </c>
@@ -4146,24 +4376,31 @@
       <c r="F17">
         <v>58</v>
       </c>
-      <c r="G17" s="1">
+      <c r="G17">
+        <v>49</v>
+      </c>
+      <c r="H17" s="1">
         <f t="shared" si="0"/>
         <v>8.3333333333333329E-2</v>
       </c>
-      <c r="H17" s="1">
+      <c r="I17" s="1">
         <f t="shared" si="1"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="I17" s="1">
+      <c r="J17" s="1">
         <f t="shared" si="2"/>
         <v>2.0833333333333332E-2</v>
       </c>
-      <c r="J17" s="1">
+      <c r="K17" s="1">
         <f t="shared" si="2"/>
         <v>0.20833333333333334</v>
       </c>
+      <c r="L17" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0833333333333332E-2</v>
+      </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>16</v>
       </c>
@@ -4182,24 +4419,31 @@
       <c r="F18">
         <v>57</v>
       </c>
-      <c r="G18" s="1">
+      <c r="G18">
+        <v>53</v>
+      </c>
+      <c r="H18" s="1">
         <f t="shared" si="0"/>
         <v>5.7692307692307696E-2</v>
       </c>
-      <c r="H18" s="1">
+      <c r="I18" s="1">
         <f t="shared" si="1"/>
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="I18" s="1">
+      <c r="J18" s="1">
         <f t="shared" si="2"/>
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="J18" s="1">
+      <c r="K18" s="1">
         <f t="shared" si="2"/>
         <v>9.6153846153846159E-2</v>
       </c>
+      <c r="L18" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9230769230769232E-2</v>
+      </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>17</v>
       </c>
@@ -4218,24 +4462,31 @@
       <c r="F19">
         <v>61</v>
       </c>
-      <c r="G19" s="1">
+      <c r="G19">
+        <v>53</v>
+      </c>
+      <c r="H19" s="1">
         <f t="shared" si="0"/>
         <v>7.6923076923076927E-2</v>
       </c>
-      <c r="H19" s="1">
+      <c r="I19" s="1">
         <f t="shared" si="1"/>
         <v>1.9230769230769232E-2</v>
       </c>
-      <c r="I19" s="1">
+      <c r="J19" s="1">
         <f t="shared" si="2"/>
         <v>3.8461538461538464E-2</v>
       </c>
-      <c r="J19" s="1">
+      <c r="K19" s="1">
         <f t="shared" si="2"/>
         <v>0.17307692307692307</v>
       </c>
+      <c r="L19" s="1">
+        <f t="shared" si="3"/>
+        <v>1.9230769230769232E-2</v>
+      </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>18</v>
       </c>
@@ -4254,24 +4505,31 @@
       <c r="F20">
         <v>51</v>
       </c>
-      <c r="G20" s="1">
+      <c r="G20">
+        <v>50</v>
+      </c>
+      <c r="H20" s="1">
         <f t="shared" si="0"/>
         <v>4.0816326530612242E-2</v>
       </c>
-      <c r="H20" s="1">
+      <c r="I20" s="1">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="I20" s="1">
+      <c r="J20" s="1">
         <f t="shared" si="2"/>
         <v>2.0408163265306121E-2</v>
       </c>
-      <c r="J20" s="1">
+      <c r="K20" s="1">
         <f t="shared" si="2"/>
         <v>4.0816326530612242E-2</v>
       </c>
+      <c r="L20" s="1">
+        <f t="shared" si="3"/>
+        <v>2.0408163265306121E-2</v>
+      </c>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>19</v>
       </c>
@@ -4290,21 +4548,28 @@
       <c r="F21">
         <v>56</v>
       </c>
-      <c r="G21" s="1">
+      <c r="G21">
+        <v>51</v>
+      </c>
+      <c r="H21" s="1">
         <f t="shared" si="0"/>
         <v>0.04</v>
       </c>
-      <c r="H21" s="1">
+      <c r="I21" s="1">
         <f t="shared" si="1"/>
         <v>0.02</v>
       </c>
-      <c r="I21" s="1">
+      <c r="J21" s="1">
         <f t="shared" si="2"/>
         <v>0.02</v>
       </c>
-      <c r="J21" s="1">
+      <c r="K21" s="1">
         <f t="shared" si="2"/>
         <v>0.12</v>
+      </c>
+      <c r="L21" s="1">
+        <f t="shared" si="3"/>
+        <v>0.02</v>
       </c>
     </row>
   </sheetData>

--- a/Day8/model_comparison.xlsx
+++ b/Day8/model_comparison.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\github\or_advent\Day8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{007E960C-C221-4600-ACB7-F58BA8047EE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5EE1A9-30E7-4234-8BD5-1C2C757FC99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15720" xr2:uid="{25937C2A-E721-4BD1-BC0C-75E8890354E8}"/>
   </bookViews>

--- a/Day8/model_comparison.xlsx
+++ b/Day8/model_comparison.xlsx
@@ -8,14 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="W:\github\or_advent\Day8\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB5EE1A9-30E7-4234-8BD5-1C2C757FC99E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60E15653-170A-40C4-8239-43ACAFEEEDBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="38280" yWindow="5280" windowWidth="29040" windowHeight="15720" xr2:uid="{25937C2A-E721-4BD1-BC0C-75E8890354E8}"/>
   </bookViews>
   <sheets>
-    <sheet name="Percent difference" sheetId="2" r:id="rId1"/>
-    <sheet name="Number of Bins" sheetId="3" r:id="rId2"/>
-    <sheet name="data" sheetId="1" r:id="rId3"/>
+    <sheet name="Percent difference (points)" sheetId="5" r:id="rId1"/>
+    <sheet name="Percent difference" sheetId="2" r:id="rId2"/>
+    <sheet name="Number of Bins" sheetId="3" r:id="rId3"/>
+    <sheet name="data" sheetId="1" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -141,6 +142,1135 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400"/>
+              <a:t>Percent Difference in Number</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="2400" baseline="0"/>
+              <a:t> of Bins to the Best Known Solution</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU" sz="2400"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="2400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="4.0624844025644334E-2"/>
+          <c:y val="8.6834302747332462E-2"/>
+          <c:w val="0.94735329805085844"/>
+          <c:h val="0.83744061514923696"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delta BFF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="24"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="bg1">
+                  <a:lumMod val="65000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$H$2:$H$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4.0816326530612242E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4.3478260869565216E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8.1632653061224483E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>6.1224489795918366E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>3.9215686274509803E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3478260869565216E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>5.7692307692307696E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0816326530612242E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>6.25E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>4.0816326530612242E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.06</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>8.3333333333333329E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>5.7692307692307696E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0816326530612242E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.04</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-238F-41CE-97BF-4B87C7BED898}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delta mip1</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="square"/>
+            <c:size val="15"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="FFC000"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$I$2:$I$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1739130434782608E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3478260869565216E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9230769230769232E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>4.0816326530612242E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9230769230769232E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9230769230769232E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-238F-41CE-97BF-4B87C7BED898}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delta mip2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="x"/>
+            <c:size val="10"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:srgbClr val="00B0F0"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>data!$A$2:$A$21</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$J$2:$J$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1739130434782608E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>4.0816326530612242E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.9607843137254902E-2</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4.3478260869565216E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9230769230769232E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9230769230769232E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>3.8461538461538464E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-238F-41CE-97BF-4B87C7BED898}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>delta+iterative_ks</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="6"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$K$2:$K$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.1224489795918366E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6.5217391304347824E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.12244897959183673</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.12</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.10416666666666667</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.125</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.1632653061224483E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.11764705882352941</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>8.6956521739130432E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.6923076923076927E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>0.20408163265306123</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>4.1666666666666664E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0.12244897959183673</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.1</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>0.20833333333333334</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>9.6153846153846159E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>0.17307692307692307</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>4.0816326530612242E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.12</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-238F-41CE-97BF-4B87C7BED898}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>data!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>minizinc+GPT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:noFill/>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="diamond"/>
+            <c:size val="7"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:ln w="9525">
+                <a:solidFill>
+                  <a:schemeClr val="accent5"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>data!$L$2:$L$21</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="20"/>
+                <c:pt idx="0">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1739130434782608E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.1739130434782608E-2</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.9230769230769232E-2</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>0.02</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>2.0833333333333332E-2</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9230769230769232E-2</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.9230769230769232E-2</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>2.0408163265306121E-2</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>0.02</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-238F-41CE-97BF-4B87C7BED898}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="845061983"/>
+        <c:axId val="845069183"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="845061983"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US" sz="1600"/>
+                  <a:t>instance id</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU" sz="1600"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="ru-RU"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1200" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845069183"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="845069183"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="845061983"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.31854041208002476"/>
+          <c:y val="9.0661443701446867E-2"/>
+          <c:w val="0.63532375284438092"/>
+          <c:h val="4.2515359671622406E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1600" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -1139,9 +2269,9 @@
         <c:manualLayout>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.53527404156447655"/>
+          <c:x val="0.31854041208002476"/>
           <c:y val="9.0661443701446867E-2"/>
-          <c:w val="0.46472597022252815"/>
+          <c:w val="0.68145958791997518"/>
           <c:h val="4.2515359671622406E-2"/>
         </c:manualLayout>
       </c:layout>
@@ -1213,7 +2343,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
@@ -2249,6 +3379,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
@@ -2753,7 +3923,7 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -2957,6 +4127,509 @@
     <cs:fillRef idx="0"/>
     <cs:effectRef idx="0"/>
     <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="216">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
@@ -3258,7 +4931,7 @@
 </file>
 
 <file path=xl/chartsheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C90B7531-DD70-44E9-8233-D1E461F380BF}">
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{F13508B2-6AEA-4235-A83C-DF39937E27B2}">
   <sheetPr/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="94" workbookViewId="0" zoomToFit="1"/>
@@ -3269,6 +4942,17 @@
 </file>
 
 <file path=xl/chartsheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{C90B7531-DD70-44E9-8233-D1E461F380BF}">
+  <sheetPr/>
+  <sheetViews>
+    <sheetView zoomScale="94" workbookViewId="0" zoomToFit="1"/>
+  </sheetViews>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</chartsheet>
+</file>
+
+<file path=xl/chartsheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" xr:uid="{5302AC0B-F037-4E9B-97F9-ACB72E579084}">
   <sheetPr/>
   <sheetViews>
@@ -3280,6 +4964,39 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:absoluteAnchor>
+    <xdr:pos x="0" y="0"/>
+    <xdr:ext cx="11602261" cy="7569335"/>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C027AC53-F40C-7991-1165-FA0C1E6F57D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks noGrp="1"/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:absoluteAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
@@ -3312,7 +5029,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
